--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/070_CsvWithHeader.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/070_CsvWithHeader.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV Data" sheetId="1" r:id="R0ab9710b6d5b4ea2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV Data" sheetId="1" r:id="R35713a5320de4230"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/070_CsvWithHeader.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/070_CsvWithHeader.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV Data" sheetId="1" r:id="R35713a5320de4230"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV Data" sheetId="1" r:id="R11e3b9e1541b462c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/070_CsvWithHeader.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/070_CsvWithHeader.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV Data" sheetId="1" r:id="R11e3b9e1541b462c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV Data" sheetId="1" r:id="R7dfe367600184896"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/070_CsvWithHeader.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/070_CsvWithHeader.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV Data" sheetId="1" r:id="R7dfe367600184896"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV Data" sheetId="1" r:id="R9eea4b76e67d47e1"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/070_CsvWithHeader.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/070_CsvWithHeader.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV Data" sheetId="1" r:id="R9eea4b76e67d47e1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV Data" sheetId="1" r:id="Rbba8ab5a33c14932"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/070_CsvWithHeader.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/070_CsvWithHeader.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV Data" sheetId="1" r:id="Rbba8ab5a33c14932"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV Data" sheetId="1" r:id="Rd1b52b73ba6646e4"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/070_CsvWithHeader.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/070_CsvWithHeader.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV Data" sheetId="1" r:id="Rd1b52b73ba6646e4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV Data" sheetId="1" r:id="R8bb517da821e49f3"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/070_CsvWithHeader.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/070_CsvWithHeader.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV Data" sheetId="1" r:id="R8bb517da821e49f3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV Data" sheetId="1" r:id="R09bdc543b9ca4780"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/070_CsvWithHeader.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/070_CsvWithHeader.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV Data" sheetId="1" r:id="R09bdc543b9ca4780"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV Data" sheetId="1" r:id="Rb467fdc253854e1a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/070_CsvWithHeader.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/070_CsvWithHeader.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV Data" sheetId="1" r:id="Rb467fdc253854e1a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV Data" sheetId="1" r:id="R01b1d2a6cb9f48cd"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/070_CsvWithHeader.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/070_CsvWithHeader.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV Data" sheetId="1" r:id="R01b1d2a6cb9f48cd"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV Data" sheetId="1" r:id="Ra4bc7bc10c494a1d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,17 +30,17 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FFFFFFFF"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/070_CsvWithHeader.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/070_CsvWithHeader.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV Data" sheetId="1" r:id="Ra4bc7bc10c494a1d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV Data" sheetId="1" r:id="R90c175407ab84a6e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,17 +30,17 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FFFFFFFF"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/070_CsvWithHeader.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/070_CsvWithHeader.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV Data" sheetId="1" r:id="R90c175407ab84a6e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CSV Data" sheetId="1" r:id="R6d3a138caa5446de"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
